--- a/team_specific_matrix/Rhode Island_A.xlsx
+++ b/team_specific_matrix/Rhode Island_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2362204724409449</v>
+        <v>0.2442528735632184</v>
       </c>
       <c r="C2">
-        <v>0.468503937007874</v>
+        <v>0.4597701149425287</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05118110236220472</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1574803149606299</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08661417322834646</v>
+        <v>0.09770114942528736</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="C3">
-        <v>0.01680672268907563</v>
+        <v>0.01875</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07563025210084033</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6722689075630253</v>
+        <v>0.66875</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2352941176470588</v>
+        <v>0.23125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7560975609756098</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2195121951219512</v>
+        <v>0.2372881355932203</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07692307692307693</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007692307692307693</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="E6">
-        <v>0.007692307692307693</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="F6">
-        <v>0.06153846153846154</v>
+        <v>0.05056179775280899</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1538461538461539</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03076923076923077</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2307692307692308</v>
+        <v>0.1966292134831461</v>
       </c>
       <c r="R6">
-        <v>0.05384615384615385</v>
+        <v>0.05056179775280899</v>
       </c>
       <c r="S6">
-        <v>0.3769230769230769</v>
+        <v>0.3764044943820224</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1259842519685039</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02362204724409449</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06299212598425197</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1417322834645669</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007874015748031496</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2362204724409449</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="R7">
-        <v>0.03149606299212598</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="S7">
-        <v>0.3700787401574803</v>
+        <v>0.4252873563218391</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1183800623052959</v>
+        <v>0.1039260969976905</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04361370716510903</v>
+        <v>0.03926096997690531</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07165109034267912</v>
+        <v>0.06466512702078522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09657320872274143</v>
+        <v>0.09699769053117784</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009345794392523364</v>
+        <v>0.006928406466512702</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1775700934579439</v>
+        <v>0.1939953810623557</v>
       </c>
       <c r="R8">
-        <v>0.1059190031152648</v>
+        <v>0.1062355658198614</v>
       </c>
       <c r="S8">
-        <v>0.3769470404984424</v>
+        <v>0.3879907621247113</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08536585365853659</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03048780487804878</v>
+        <v>0.03125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05487804878048781</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1158536585365854</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2134146341463415</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="R9">
-        <v>0.1036585365853658</v>
+        <v>0.1026785714285714</v>
       </c>
       <c r="S9">
-        <v>0.3963414634146342</v>
+        <v>0.3883928571428572</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.132404181184669</v>
+        <v>0.1358234295415959</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02090592334494774</v>
+        <v>0.02461799660441426</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06387921022067364</v>
+        <v>0.06366723259762309</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1184668989547038</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02439024390243903</v>
+        <v>0.02716468590831918</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2102206736353078</v>
+        <v>0.2147707979626486</v>
       </c>
       <c r="R10">
-        <v>0.07665505226480836</v>
+        <v>0.07130730050933787</v>
       </c>
       <c r="S10">
-        <v>0.3530778164924506</v>
+        <v>0.3497453310696095</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1506849315068493</v>
+        <v>0.1602787456445993</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1141552511415525</v>
+        <v>0.1045296167247387</v>
       </c>
       <c r="K11">
-        <v>0.228310502283105</v>
+        <v>0.2299651567944251</v>
       </c>
       <c r="L11">
-        <v>0.4748858447488584</v>
+        <v>0.4808362369337979</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0319634703196347</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6666666666666666</v>
+        <v>0.6906474820143885</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2476190476190476</v>
+        <v>0.2158273381294964</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.009523809523809525</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0761904761904762</v>
+        <v>0.07913669064748201</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6578947368421053</v>
+        <v>0.66</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3157894736842105</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007194244604316547</v>
+        <v>0.005</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1294964028776978</v>
+        <v>0.12</v>
       </c>
       <c r="I15">
-        <v>0.08633093525179857</v>
+        <v>0.075</v>
       </c>
       <c r="J15">
-        <v>0.3741007194244604</v>
+        <v>0.405</v>
       </c>
       <c r="K15">
-        <v>0.05035971223021583</v>
+        <v>0.05</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02158273381294964</v>
+        <v>0.015</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04316546762589928</v>
+        <v>0.045</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2877697841726619</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1842105263157895</v>
+        <v>0.1715686274509804</v>
       </c>
       <c r="I16">
-        <v>0.05263157894736842</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="J16">
-        <v>0.4078947368421053</v>
+        <v>0.3872549019607843</v>
       </c>
       <c r="K16">
-        <v>0.1644736842105263</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03289473684210526</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05263157894736842</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1052631578947368</v>
+        <v>0.1225490196078431</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00909090909090909</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1848484848484848</v>
+        <v>0.1737193763919822</v>
       </c>
       <c r="I17">
-        <v>0.1242424242424242</v>
+        <v>0.1269487750556793</v>
       </c>
       <c r="J17">
-        <v>0.4121212121212121</v>
+        <v>0.4187082405345212</v>
       </c>
       <c r="K17">
-        <v>0.08787878787878788</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01212121212121212</v>
+        <v>0.0155902004454343</v>
       </c>
       <c r="N17">
-        <v>0.00303030303030303</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="O17">
-        <v>0.05757575757575758</v>
+        <v>0.0556792873051225</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1090909090909091</v>
+        <v>0.1180400890868597</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1472868217054264</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="I18">
-        <v>0.08527131782945736</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J18">
-        <v>0.3565891472868217</v>
+        <v>0.3352941176470588</v>
       </c>
       <c r="K18">
-        <v>0.1627906976744186</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03875968992248062</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05426356589147287</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1550387596899225</v>
+        <v>0.1470588235294118</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007050528789659225</v>
+        <v>0.00919732441471572</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2279670975323149</v>
+        <v>0.225752508361204</v>
       </c>
       <c r="I19">
-        <v>0.1069330199764982</v>
+        <v>0.1020066889632107</v>
       </c>
       <c r="J19">
-        <v>0.3572267920094007</v>
+        <v>0.3561872909698997</v>
       </c>
       <c r="K19">
-        <v>0.1045828437132785</v>
+        <v>0.1003344481605351</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02702702702702703</v>
+        <v>0.02591973244147157</v>
       </c>
       <c r="N19">
-        <v>0.001175088131609871</v>
+        <v>0.0008361204013377926</v>
       </c>
       <c r="O19">
-        <v>0.06110458284371328</v>
+        <v>0.06438127090301003</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1069330199764982</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Rhode Island_A.xlsx
+++ b/team_specific_matrix/Rhode Island_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2442528735632184</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C2">
-        <v>0.4597701149425287</v>
+        <v>0.4708994708994709</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04310344827586207</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1551724137931035</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09770114942528736</v>
+        <v>0.09788359788359788</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0125</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="C3">
-        <v>0.01875</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06875000000000001</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.66875</v>
+        <v>0.664804469273743</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.23125</v>
+        <v>0.2290502793296089</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05084745762711865</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.711864406779661</v>
+        <v>0.7205882352941176</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2372881355932203</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07303370786516854</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01123595505617977</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="E6">
-        <v>0.005617977528089887</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F6">
-        <v>0.05056179775280899</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2022471910112359</v>
+        <v>0.2131979695431472</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03370786516853932</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1966292134831461</v>
+        <v>0.1878172588832487</v>
       </c>
       <c r="R6">
-        <v>0.05056179775280899</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="S6">
-        <v>0.3764044943820224</v>
+        <v>0.3807106598984771</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1206896551724138</v>
+        <v>0.1262626262626263</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02298850574712644</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05747126436781609</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.132183908045977</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005747126436781609</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1954022988505747</v>
+        <v>0.1767676767676768</v>
       </c>
       <c r="R7">
-        <v>0.04022988505747126</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="S7">
-        <v>0.4252873563218391</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1039260969976905</v>
+        <v>0.1024590163934426</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03926096997690531</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06466512702078522</v>
+        <v>0.06762295081967214</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09699769053117784</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006928406466512702</v>
+        <v>0.006147540983606557</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1939953810623557</v>
+        <v>0.1905737704918033</v>
       </c>
       <c r="R8">
-        <v>0.1062355658198614</v>
+        <v>0.1127049180327869</v>
       </c>
       <c r="S8">
-        <v>0.3879907621247113</v>
+        <v>0.389344262295082</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08928571428571429</v>
+        <v>0.09727626459143969</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03125</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="F9">
-        <v>0.05357142857142857</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1206225680933852</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004464285714285714</v>
+        <v>0.007782101167315175</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2053571428571428</v>
+        <v>0.198443579766537</v>
       </c>
       <c r="R9">
-        <v>0.1026785714285714</v>
+        <v>0.0933852140077821</v>
       </c>
       <c r="S9">
-        <v>0.3883928571428572</v>
+        <v>0.3891050583657588</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1358234295415959</v>
+        <v>0.1319444444444444</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02461799660441426</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06366723259762309</v>
+        <v>0.06327160493827161</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1129032258064516</v>
+        <v>0.1126543209876543</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02716468590831918</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2147707979626486</v>
+        <v>0.2137345679012346</v>
       </c>
       <c r="R10">
-        <v>0.07130730050933787</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S10">
-        <v>0.3497453310696095</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1602787456445993</v>
+        <v>0.1608832807570978</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1045296167247387</v>
+        <v>0.09779179810725552</v>
       </c>
       <c r="K11">
-        <v>0.2299651567944251</v>
+        <v>0.2271293375394322</v>
       </c>
       <c r="L11">
-        <v>0.4808362369337979</v>
+        <v>0.4921135646687697</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02439024390243903</v>
+        <v>0.0220820189274448</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6906474820143885</v>
+        <v>0.7025316455696202</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2158273381294964</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01438848920863309</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07913669064748201</v>
+        <v>0.06962025316455696</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.66</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.12</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="I15">
-        <v>0.075</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="J15">
-        <v>0.405</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K15">
-        <v>0.05</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.045</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.285</v>
+        <v>0.2739130434782608</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01470588235294118</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1715686274509804</v>
+        <v>0.1725663716814159</v>
       </c>
       <c r="I16">
-        <v>0.06372549019607843</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="J16">
-        <v>0.3872549019607843</v>
+        <v>0.4026548672566372</v>
       </c>
       <c r="K16">
-        <v>0.1617647058823529</v>
+        <v>0.163716814159292</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02450980392156863</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05392156862745098</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1225490196078431</v>
+        <v>0.1150442477876106</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0111358574610245</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1737193763919822</v>
+        <v>0.1693877551020408</v>
       </c>
       <c r="I17">
-        <v>0.1269487750556793</v>
+        <v>0.1306122448979592</v>
       </c>
       <c r="J17">
-        <v>0.4187082405345212</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="K17">
-        <v>0.0779510022271715</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0155902004454343</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N17">
-        <v>0.0022271714922049</v>
+        <v>0.002040816326530612</v>
       </c>
       <c r="O17">
-        <v>0.0556792873051225</v>
+        <v>0.06326530612244897</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1180400890868597</v>
+        <v>0.1163265306122449</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005882352941176471</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1529411764705882</v>
+        <v>0.1487179487179487</v>
       </c>
       <c r="I18">
-        <v>0.1176470588235294</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="J18">
-        <v>0.3352941176470588</v>
+        <v>0.3487179487179487</v>
       </c>
       <c r="K18">
-        <v>0.1470588235294118</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03529411764705882</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1470588235294118</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00919732441471572</v>
+        <v>0.009015777610818933</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.225752508361204</v>
+        <v>0.2291510142749812</v>
       </c>
       <c r="I19">
-        <v>0.1020066889632107</v>
+        <v>0.1051840721262209</v>
       </c>
       <c r="J19">
-        <v>0.3561872909698997</v>
+        <v>0.3516153268219384</v>
       </c>
       <c r="K19">
-        <v>0.1003344481605351</v>
+        <v>0.09767092411720511</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02591973244147157</v>
+        <v>0.0270473328324568</v>
       </c>
       <c r="N19">
-        <v>0.0008361204013377926</v>
+        <v>0.0007513148009015778</v>
       </c>
       <c r="O19">
-        <v>0.06438127090301003</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1153846153846154</v>
+        <v>0.1134485349361382</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Rhode Island_A.xlsx
+++ b/team_specific_matrix/Rhode Island_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2380952380952381</v>
+        <v>0.2366412213740458</v>
       </c>
       <c r="C2">
-        <v>0.4708994708994709</v>
+        <v>0.4732824427480916</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04232804232804233</v>
+        <v>0.04071246819338423</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1507936507936508</v>
+        <v>0.1501272264631043</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09788359788359788</v>
+        <v>0.09923664122137404</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0111731843575419</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="C3">
-        <v>0.0223463687150838</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07262569832402235</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.664804469273743</v>
+        <v>0.6631016042780749</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2290502793296089</v>
+        <v>0.2299465240641711</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04411764705882353</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7205882352941176</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.2394366197183098</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06598984771573604</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01015228426395939</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E6">
-        <v>0.005076142131979695</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="F6">
-        <v>0.04568527918781726</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2131979695431472</v>
+        <v>0.2107843137254902</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03553299492385787</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1878172588832487</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="R6">
-        <v>0.05583756345177665</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="S6">
-        <v>0.3807106598984771</v>
+        <v>0.3872549019607843</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1262626262626263</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03535353535353535</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0505050505050505</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1414141414141414</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005050505050505051</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1767676767676768</v>
+        <v>0.1822660098522167</v>
       </c>
       <c r="R7">
-        <v>0.04040404040404041</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="S7">
-        <v>0.4242424242424243</v>
+        <v>0.4187192118226601</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1024590163934426</v>
+        <v>0.099601593625498</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04098360655737705</v>
+        <v>0.0398406374501992</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06762295081967214</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09016393442622951</v>
+        <v>0.08964143426294821</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006147540983606557</v>
+        <v>0.00597609561752988</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1905737704918033</v>
+        <v>0.1852589641434263</v>
       </c>
       <c r="R8">
-        <v>0.1127049180327869</v>
+        <v>0.1135458167330677</v>
       </c>
       <c r="S8">
-        <v>0.389344262295082</v>
+        <v>0.398406374501992</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09727626459143969</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02723735408560311</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E9">
-        <v>0.003891050583657588</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="F9">
-        <v>0.0622568093385214</v>
+        <v>0.06390977443609022</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1206225680933852</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007782101167315175</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.198443579766537</v>
+        <v>0.1917293233082707</v>
       </c>
       <c r="R9">
-        <v>0.0933852140077821</v>
+        <v>0.09022556390977443</v>
       </c>
       <c r="S9">
-        <v>0.3891050583657588</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1319444444444444</v>
+        <v>0.1346297681376215</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02469135802469136</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06327160493827161</v>
+        <v>0.0643231114435303</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1126543209876543</v>
+        <v>0.1129394166043381</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02777777777777778</v>
+        <v>0.02692595362752431</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2137345679012346</v>
+        <v>0.2101720269259536</v>
       </c>
       <c r="R10">
-        <v>0.07407407407407407</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="S10">
-        <v>0.3518518518518519</v>
+        <v>0.3515332834704563</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1608832807570978</v>
+        <v>0.1620795107033639</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09779179810725552</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="K11">
-        <v>0.2271293375394322</v>
+        <v>0.2262996941896024</v>
       </c>
       <c r="L11">
-        <v>0.4921135646687697</v>
+        <v>0.4892966360856269</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0220820189274448</v>
+        <v>0.02140672782874618</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7025316455696202</v>
+        <v>0.6932515337423313</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2088607594936709</v>
+        <v>0.2147239263803681</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0189873417721519</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06962025316455696</v>
+        <v>0.06748466257668712</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6964285714285714</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2678571428571428</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004347826086956522</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1391304347826087</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="I15">
-        <v>0.0782608695652174</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J15">
-        <v>0.391304347826087</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K15">
-        <v>0.05217391304347826</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01304347826086956</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04782608695652174</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2739130434782608</v>
+        <v>0.2735042735042735</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01327433628318584</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1725663716814159</v>
+        <v>0.174468085106383</v>
       </c>
       <c r="I16">
-        <v>0.05752212389380531</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="J16">
-        <v>0.4026548672566372</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="K16">
-        <v>0.163716814159292</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02212389380530973</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05309734513274336</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1150442477876106</v>
+        <v>0.1191489361702128</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01020408163265306</v>
+        <v>0.01004016064257028</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1693877551020408</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="I17">
-        <v>0.1306122448979592</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="J17">
-        <v>0.4081632653061225</v>
+        <v>0.4116465863453815</v>
       </c>
       <c r="K17">
-        <v>0.08571428571428572</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01428571428571429</v>
+        <v>0.01405622489959839</v>
       </c>
       <c r="N17">
-        <v>0.002040816326530612</v>
+        <v>0.002008032128514056</v>
       </c>
       <c r="O17">
-        <v>0.06326530612244897</v>
+        <v>0.06224899598393574</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1163265306122449</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005128205128205128</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1487179487179487</v>
+        <v>0.1507537688442211</v>
       </c>
       <c r="I18">
-        <v>0.1230769230769231</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="J18">
-        <v>0.3487179487179487</v>
+        <v>0.3567839195979899</v>
       </c>
       <c r="K18">
-        <v>0.1333333333333333</v>
+        <v>0.1306532663316583</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03589743589743589</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05128205128205128</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1538461538461539</v>
+        <v>0.1507537688442211</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009015777610818933</v>
+        <v>0.008708272859216255</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2291510142749812</v>
+        <v>0.227866473149492</v>
       </c>
       <c r="I19">
-        <v>0.1051840721262209</v>
+        <v>0.1066763425253991</v>
       </c>
       <c r="J19">
-        <v>0.3516153268219384</v>
+        <v>0.3505079825834543</v>
       </c>
       <c r="K19">
-        <v>0.09767092411720511</v>
+        <v>0.09869375907111756</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0270473328324568</v>
+        <v>0.02685050798258345</v>
       </c>
       <c r="N19">
-        <v>0.0007513148009015778</v>
+        <v>0.000725689404934688</v>
       </c>
       <c r="O19">
-        <v>0.06611570247933884</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1134485349361382</v>
+        <v>0.113933236574746</v>
       </c>
     </row>
   </sheetData>
